--- a/SonarExcel/Sonarqube_2019-01-18.xlsx
+++ b/SonarExcel/Sonarqube_2019-01-18.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akentros\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5CA0ED-A577-45E9-8242-E508EA8BDAB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2F042BF5-1D84-496F-A585-5E3B2F4D4448}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{51E6EAAD-05A4-4ABF-9C41-47DDD24B1FF3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22005" windowHeight="10605" xr2:uid="{51E6EAAD-05A4-4ABF-9C41-47DDD24B1FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sonar" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sonar!$A$1:$D$6</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>Component</t>
   </si>
@@ -666,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8813844-8EF4-454F-891A-E8C2CCB400ED}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1232,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1253,7 +1249,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1270,22 +1266,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>36</v>
-      </c>
+    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="D35" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D6" xr:uid="{AE82ABF1-F0D6-432B-8D77-15134B58E3CC}"/>

--- a/SonarExcel/Sonarqube_2019-01-18.xlsx
+++ b/SonarExcel/Sonarqube_2019-01-18.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2F042BF5-1D84-496F-A585-5E3B2F4D4448}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8B2A1861-4C71-47ED-9A48-8559BEECBE95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22005" windowHeight="10605" xr2:uid="{51E6EAAD-05A4-4ABF-9C41-47DDD24B1FF3}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>ATS UI</t>
   </si>
   <si>
-    <t>EJK adaptor</t>
-  </si>
-  <si>
     <t>Auditing UI</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>EJK Adaptor</t>
   </si>
 </sst>
 </file>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8813844-8EF4-454F-891A-E8C2CCB400ED}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,19 +683,19 @@
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="13">
         <v>0.97599999999999998</v>
@@ -720,10 +720,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="14">
         <v>0.749</v>
@@ -737,10 +737,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="14">
         <v>0.49</v>
@@ -754,10 +754,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="14">
         <v>0.69</v>
@@ -771,10 +771,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="14">
         <v>0.7</v>
@@ -788,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>10</v>
@@ -805,10 +805,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="14">
         <v>0.498</v>
@@ -822,10 +822,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="14">
         <v>0.192</v>
@@ -839,10 +839,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D10" s="14">
         <v>0.188</v>
@@ -856,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>2</v>
@@ -873,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>4</v>
@@ -890,7 +890,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
@@ -907,10 +907,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="14">
         <v>0.189</v>
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>7</v>
@@ -942,7 +942,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>5</v>
@@ -959,7 +959,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>1</v>
@@ -976,7 +976,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>3</v>
@@ -993,7 +993,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>11</v>
@@ -1010,10 +1010,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="16">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
@@ -1047,7 +1047,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>8</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1067,10 +1067,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="16">
         <v>0</v>
@@ -1084,10 +1084,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="D24" s="17">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="17">
         <v>0</v>
@@ -1118,10 +1118,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="17">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="17">
         <v>0</v>
@@ -1152,10 +1152,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="17">
         <v>0</v>
@@ -1169,10 +1169,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="17">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,16 +1203,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1220,16 +1220,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1237,16 +1237,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1254,16 +1254,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/SonarExcel/Sonarqube_2019-01-18.xlsx
+++ b/SonarExcel/Sonarqube_2019-01-18.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8B2A1861-4C71-47ED-9A48-8559BEECBE95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E17D3A84-DA38-474D-9486-23B936239FB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22005" windowHeight="10605" xr2:uid="{51E6EAAD-05A4-4ABF-9C41-47DDD24B1FF3}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sonar!$A$1:$D$6</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A16:P48"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>Component</t>
   </si>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8813844-8EF4-454F-891A-E8C2CCB400ED}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +814,7 @@
         <v>0.498</v>
       </c>
       <c r="E8" s="14">
-        <v>0.498</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1157,8 +1157,8 @@
       <c r="C28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="17">
-        <v>0</v>
+      <c r="D28" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="E28" s="17">
         <v>0</v>
@@ -1174,8 +1174,8 @@
       <c r="C29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="17">
-        <v>0</v>
+      <c r="D29" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="E29" s="17">
         <v>0</v>

--- a/SonarExcel/Sonarqube_2019-01-18.xlsx
+++ b/SonarExcel/Sonarqube_2019-01-18.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E17D3A84-DA38-474D-9486-23B936239FB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F3BE51C1-9CC8-4F6B-86DF-41E045F660B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22005" windowHeight="10605" xr2:uid="{51E6EAAD-05A4-4ABF-9C41-47DDD24B1FF3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22005" windowHeight="12000" xr2:uid="{51E6EAAD-05A4-4ABF-9C41-47DDD24B1FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sonar" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>Component</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>Fraud</t>
-  </si>
-  <si>
-    <t>/</t>
   </si>
   <si>
     <t>EJK Adaptor</t>
@@ -665,7 +662,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +839,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="14">
         <v>0.188</v>
@@ -1021,9 +1018,6 @@
       <c r="E20" s="16">
         <v>0</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
@@ -1058,9 +1052,6 @@
       <c r="E22" s="16">
         <v>0</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
@@ -1160,8 +1151,8 @@
       <c r="D28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="17">
-        <v>0</v>
+      <c r="E28" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1177,8 +1168,8 @@
       <c r="D29" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="17">
-        <v>0</v>
+      <c r="E29" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">

--- a/SonarExcel/Sonarqube_2019-01-18.xlsx
+++ b/SonarExcel/Sonarqube_2019-01-18.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F3BE51C1-9CC8-4F6B-86DF-41E045F660B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse-Workspace\SonarParser\SonarExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE27A4E-C119-480C-BE19-778948F8C4FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22005" windowHeight="12000" xr2:uid="{51E6EAAD-05A4-4ABF-9C41-47DDD24B1FF3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22005" windowHeight="10605" xr2:uid="{51E6EAAD-05A4-4ABF-9C41-47DDD24B1FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sonar" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sonar!$A$1:$D$6</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A16:P48"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="42">
   <si>
     <t>Component</t>
   </si>
@@ -288,7 +292,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -335,6 +339,9 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -659,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8813844-8EF4-454F-891A-E8C2CCB400ED}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +958,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -968,7 +975,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -985,7 +992,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1002,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1012,14 +1019,14 @@
       <c r="C20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1036,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1046,14 +1053,14 @@
       <c r="C22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1070,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1087,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1104,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1121,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1138,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1148,14 +1155,14 @@
       <c r="C28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1165,14 +1172,14 @@
       <c r="C29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="17">
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1189,7 +1196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1206,7 +1213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -1223,7 +1230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1240,7 +1247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1256,10 +1263,6 @@
       <c r="E34" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="D35" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D6" xr:uid="{AE82ABF1-F0D6-432B-8D77-15134B58E3CC}"/>

--- a/SonarExcel/Sonarqube_2019-01-18.xlsx
+++ b/SonarExcel/Sonarqube_2019-01-18.xlsx
@@ -3,12 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse-Workspace\SonarParser\SonarExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE27A4E-C119-480C-BE19-778948F8C4FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{60C464D5-FB50-4151-AFBC-18CB6DAB7211}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22005" windowHeight="10605" xr2:uid="{51E6EAAD-05A4-4ABF-9C41-47DDD24B1FF3}"/>
   </bookViews>
@@ -19,6 +14,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sonar!$A$1:$D$6</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
   <si>
     <t>Component</t>
   </si>
@@ -666,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8813844-8EF4-454F-891A-E8C2CCB400ED}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +746,7 @@
         <v>0.49</v>
       </c>
       <c r="E4" s="14">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">

--- a/SonarExcel/Sonarqube_2019-01-18.xlsx
+++ b/SonarExcel/Sonarqube_2019-01-18.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{60C464D5-FB50-4151-AFBC-18CB6DAB7211}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2D9B6428-22EB-438D-A4E9-8C7DC524B6A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22005" windowHeight="10605" xr2:uid="{51E6EAAD-05A4-4ABF-9C41-47DDD24B1FF3}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>Component</t>
   </si>
@@ -665,7 +665,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,11 +1015,11 @@
       <c r="C20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>35</v>
+      <c r="D20" s="18">
+        <v>0</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1151,11 +1151,11 @@
       <c r="C28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>35</v>
+      <c r="D28" s="19">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1185,11 +1185,11 @@
       <c r="C30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>35</v>
+      <c r="D30" s="18">
+        <v>0</v>
+      </c>
+      <c r="E30" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">

--- a/SonarExcel/Sonarqube_2019-01-18.xlsx
+++ b/SonarExcel/Sonarqube_2019-01-18.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2D9B6428-22EB-438D-A4E9-8C7DC524B6A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5918CB19-9EA8-4079-BD34-DC92C84C24C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22005" windowHeight="10605" xr2:uid="{51E6EAAD-05A4-4ABF-9C41-47DDD24B1FF3}"/>
   </bookViews>
@@ -665,7 +665,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +746,7 @@
         <v>0.49</v>
       </c>
       <c r="E4" s="14">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
